--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -676,7 +676,7 @@
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -685,7 +685,7 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -703,19 +703,19 @@
         <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -724,22 +724,22 @@
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
         <v>28</v>
@@ -751,25 +751,25 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="n">
         <v>60</v>
       </c>
-      <c r="AL2" t="n">
-        <v>70</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" t="n">
         <v>1.24</v>
@@ -1345,16 +1345,16 @@
         <v>2.64</v>
       </c>
       <c r="G7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>8.800000000000001</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
@@ -1492,7 +1492,7 @@
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>1.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1645,7 +1645,7 @@
         <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q10" t="n">
         <v>1.25</v>
@@ -2050,7 +2050,7 @@
         <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
         <v>1.24</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
         <v>2.82</v>
@@ -1489,10 +1489,10 @@
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
         <v>1.51</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -706,10 +706,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
@@ -721,49 +721,49 @@
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG2" t="n">
         <v>16</v>
       </c>
-      <c r="AA2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
         <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.24</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1615,10 +1615,10 @@
         <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.96</v>
@@ -1759,7 +1759,7 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -2050,7 +2050,7 @@
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -670,7 +670,7 @@
         <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
@@ -682,7 +682,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -709,10 +709,10 @@
         <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.81</v>
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>2.44</v>
@@ -1378,16 +1378,16 @@
         <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="I9" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
         <v>1.93</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
         <v>1.51</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -673,10 +673,10 @@
         <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -694,7 +694,7 @@
         <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
@@ -712,7 +712,7 @@
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.81</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -1378,10 +1378,10 @@
         <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1480,13 +1480,13 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -676,7 +676,7 @@
         <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -709,7 +709,7 @@
         <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
@@ -757,7 +757,7 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>55</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.2</v>
@@ -844,10 +844,10 @@
         <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.08</v>
@@ -979,10 +979,10 @@
         <v>1.08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1084,100 +1084,100 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1348,7 +1348,7 @@
         <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="I7" t="n">
         <v>2.54</v>
@@ -1357,7 +1357,7 @@
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
         <v>1.2</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.01</v>
       </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -679,7 +679,7 @@
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
@@ -1108,7 +1108,7 @@
         <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
         <v>1.21</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1300,16 +1300,16 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1369,7 +1369,7 @@
         <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
         <v>2.62</v>
@@ -1381,7 +1381,7 @@
         <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.49</v>
@@ -1408,16 +1408,16 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>36</v>
@@ -1432,13 +1432,13 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
         <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>65</v>
@@ -1480,31 +1480,31 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1513,76 +1513,76 @@
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.6</v>
       </c>
-      <c r="G9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1750,109 +1750,109 @@
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q10" t="n">
         <v>1.26</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2035,94 +2035,94 @@
         <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -736,7 +736,7 @@
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -1108,7 +1108,7 @@
         <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>1.21</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="I6" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1300,16 +1300,16 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1369,19 +1369,19 @@
         <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
         <v>1.49</v>
@@ -1390,40 +1390,40 @@
         <v>2.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
         <v>22</v>
       </c>
-      <c r="AA7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
@@ -1435,16 +1435,16 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1486,25 +1486,25 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1513,76 +1513,76 @@
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
         <v>26</v>
       </c>
-      <c r="Z8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1645,7 +1645,7 @@
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
@@ -1657,16 +1657,16 @@
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
@@ -1681,7 +1681,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
@@ -1789,7 +1789,7 @@
         <v>1.69</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
@@ -1930,10 +1930,10 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>9.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="X12" t="n">
         <v>990</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>990</v>
@@ -2095,10 +2095,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2107,10 +2107,10 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -691,10 +691,10 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
@@ -706,13 +706,13 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.81</v>
@@ -1210,7 +1210,7 @@
         <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>1.39</v>
@@ -1264,25 +1264,25 @@
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>80</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1369,19 +1369,19 @@
         <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.49</v>
@@ -1390,28 +1390,28 @@
         <v>2.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
       </c>
       <c r="X7" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
         <v>34</v>
       </c>
-      <c r="Y7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
@@ -1420,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
@@ -1435,16 +1435,16 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1486,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1519,16 +1519,16 @@
         <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
         <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>65</v>
@@ -1546,10 +1546,10 @@
         <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
         <v>40</v>
@@ -1564,7 +1564,7 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
         <v>36</v>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>70</v>
@@ -1621,7 +1621,7 @@
         <v>1.64</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1645,37 +1645,37 @@
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>990</v>
@@ -1684,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>980</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1789,7 @@
         <v>1.69</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
@@ -1888,7 +1888,7 @@
         <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I11" t="n">
         <v>1.78</v>
@@ -1915,7 +1915,7 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
@@ -2020,10 +2020,10 @@
         <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I12" t="n">
         <v>16</v>
@@ -2032,7 +2032,7 @@
         <v>5.9</v>
       </c>
       <c r="K12" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.18</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.16</v>
@@ -2059,7 +2059,7 @@
         <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
         <v>1.85</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
         <v>990</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -682,7 +682,7 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -712,7 +712,7 @@
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.81</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
@@ -1351,7 +1351,7 @@
         <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1369,7 +1369,7 @@
         <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>2.62</v>
@@ -1381,16 +1381,16 @@
         <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
         <v>2.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
@@ -1399,7 +1399,7 @@
         <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
@@ -1414,10 +1414,10 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>36</v>
@@ -1432,13 +1432,13 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>65</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1516,31 +1516,31 @@
         <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
         <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
         <v>1.72</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>17.5</v>
@@ -1549,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>40</v>
@@ -1567,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1579,10 +1579,10 @@
         <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
         <v>1.75</v>
@@ -1636,43 +1636,43 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>2.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,40 +1681,40 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
         <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
         <v>1.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S10" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="T10" t="n">
         <v>1.6</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.02</v>
@@ -2020,7 +2020,7 @@
         <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
         <v>9.6</v>
@@ -2029,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="K12" t="n">
         <v>7.4</v>
@@ -2065,10 +2065,10 @@
         <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
         <v>990</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
@@ -706,7 +706,7 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>42</v>
@@ -1210,10 +1210,10 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
         <v>1.59</v>
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1246,19 +1246,19 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1369,13 +1369,13 @@
         <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
         <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
         <v>1.66</v>
@@ -1408,16 +1408,16 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>36</v>
@@ -1432,19 +1432,19 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1672,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1798,7 +1798,7 @@
         <v>4.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -2020,7 +2020,7 @@
         <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
         <v>9.6</v>
@@ -2035,7 +2035,7 @@
         <v>7.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2068,7 +2068,7 @@
         <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="X12" t="n">
         <v>990</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -1210,10 +1210,10 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I6" t="n">
         <v>1.59</v>
@@ -1222,7 +1222,7 @@
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1348,7 +1348,7 @@
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I7" t="n">
         <v>2.26</v>
@@ -1372,7 +1372,7 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q7" t="n">
         <v>1.5</v>
@@ -1480,7 +1480,7 @@
         <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
@@ -1489,7 +1489,7 @@
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1705,10 +1705,10 @@
         <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="I10" t="n">
         <v>1.26</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>3.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
         <v>1.92</v>
@@ -1789,7 +1789,7 @@
         <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
@@ -1798,7 +1798,7 @@
         <v>4.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -685,7 +685,7 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>1.36</v>
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>1.1</v>
@@ -1084,19 +1084,19 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
@@ -1108,7 +1108,7 @@
         <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
         <v>1.21</v>
@@ -1210,22 +1210,22 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I6" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J6" t="n">
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1240,7 +1240,7 @@
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.5</v>
@@ -1249,16 +1249,16 @@
         <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1351,7 +1351,7 @@
         <v>2.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1366,52 +1366,52 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" t="n">
         <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
         <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
@@ -1420,16 +1420,16 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
         <v>60</v>
@@ -1447,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1507,28 +1507,28 @@
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
         <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
         <v>6.6</v>
@@ -1621,7 +1621,7 @@
         <v>1.62</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1651,25 +1651,25 @@
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W9" t="n">
         <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
@@ -1750,19 +1750,19 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I10" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,61 +1771,61 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>8.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="R10" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="S10" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
         <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="n">
         <v>990</v>
@@ -1837,22 +1837,22 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
         <v>6.8</v>
@@ -1891,37 +1891,37 @@
         <v>1.63</v>
       </c>
       <c r="I11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
         <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -1936,40 +1936,40 @@
         <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H12" t="n">
         <v>9.6</v>
@@ -2029,13 +2029,13 @@
         <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2047,28 +2047,28 @@
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
         <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X12" t="n">
         <v>990</v>
@@ -2086,7 +2086,7 @@
         <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD12" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,10 +682,10 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,16 +697,16 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -1063,61 +1063,61 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.02</v>
       </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1126,10 +1126,10 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>1.02</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.04</v>
       </c>
-      <c r="N6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1276,16 +1276,16 @@
         <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>990</v>
@@ -1294,7 +1294,7 @@
         <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.5</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>2.24</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.38</v>
       </c>
-      <c r="W8" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
         <v>30</v>
       </c>
-      <c r="Y8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN8" t="n">
         <v>21</v>
       </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB9" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>990</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>1.76</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="AK10" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J11" t="n">
         <v>6.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
@@ -2003,125 +2003,260 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Ashdod</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>15:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Hapoel Beer Sheva</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Hapoel Jerusalem</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>1.27</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>1.39</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>9.6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>16</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>5.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>7.2</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1.18</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
         <v>5.7</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>1.16</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>2.62</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>1.43</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R13" t="n">
         <v>1.65</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S13" t="n">
         <v>2.22</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T13" t="n">
         <v>1.94</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U13" t="n">
         <v>1.86</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V13" t="n">
         <v>1.07</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W13" t="n">
         <v>3.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X13" t="n">
         <v>990</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y13" t="n">
         <v>990</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC13" t="n">
         <v>18</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD13" t="n">
         <v>990</v>
       </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH13" t="n">
         <v>990</v>
       </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK13" t="n">
         <v>17</v>
       </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>4.9</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.85</v>
@@ -1072,100 +1072,100 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.26</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="W7" t="n">
         <v>1.14</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>990</v>
@@ -1624,7 +1624,7 @@
         <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1660,7 +1660,7 @@
         <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
         <v>1.76</v>
@@ -1792,7 +1792,7 @@
         <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>2.34</v>
@@ -1822,7 +1822,7 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>50</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
         <v>1.26</v>
       </c>
       <c r="I11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
         <v>6.8</v>
@@ -2020,16 +2020,16 @@
         <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
         <v>4.8</v>
@@ -2044,13 +2044,13 @@
         <v>2.12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
         <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
@@ -2065,10 +2065,10 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X12" t="n">
         <v>32</v>
@@ -2155,7 +2155,7 @@
         <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="H13" t="n">
         <v>9.6</v>
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>7.2</v>
@@ -2200,7 +2200,7 @@
         <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
         <v>3.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -670,19 +670,19 @@
         <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -715,13 +715,13 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.199999999999999</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -829,19 +829,19 @@
         <v>1.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.08</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.18</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>2.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>1.34</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.21</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="n">
         <v>990</v>
@@ -1489,7 +1489,7 @@
         <v>2.24</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1546,7 +1546,7 @@
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
@@ -1621,10 +1621,10 @@
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1660,7 +1660,7 @@
         <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
         <v>1.76</v>
@@ -1756,7 +1756,7 @@
         <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W10" t="n">
         <v>1.18</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J11" t="n">
         <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,43 +1906,43 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>12.5</v>
@@ -1954,13 +1954,13 @@
         <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AG11" t="n">
         <v>990</v>
@@ -1972,13 +1972,13 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="AK11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL11" t="n">
         <v>150</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.8</v>
@@ -2038,91 +2038,91 @@
         <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.12</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
         <v>24</v>
       </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>30</v>
-      </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2155,16 +2155,16 @@
         <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H13" t="n">
         <v>9.6</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
         <v>7.2</v>
@@ -2182,13 +2182,13 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.43</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
         <v>2.22</v>
@@ -2200,10 +2200,10 @@
         <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AH13" t="n">
         <v>990</v>
@@ -2242,10 +2242,10 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -706,7 +706,7 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -754,7 +754,7 @@
         <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -826,22 +826,22 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1096,22 +1096,22 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.83</v>
@@ -1120,7 +1120,7 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
         <v>1.27</v>
@@ -1141,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>11.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,19 +1366,19 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>2.8</v>
@@ -1387,13 +1387,13 @@
         <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
@@ -1621,10 +1621,10 @@
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1660,25 +1660,25 @@
         <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
         <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -1690,13 +1690,13 @@
         <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>44</v>
@@ -1705,7 +1705,7 @@
         <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>27</v>
@@ -1756,7 +1756,7 @@
         <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.18</v>
@@ -2020,10 +2020,10 @@
         <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I12" t="n">
         <v>1.81</v>
@@ -2044,7 +2044,7 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
         <v>2.3</v>
@@ -2056,13 +2056,13 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
         <v>2.22</v>
@@ -2167,7 +2167,7 @@
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.18</v>
@@ -2182,13 +2182,13 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
         <v>1.43</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
         <v>2.22</v>
@@ -2197,7 +2197,7 @@
         <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -670,19 +670,19 @@
         <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -715,10 +715,10 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -838,10 +838,10 @@
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,16 +940,16 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -970,7 +970,7 @@
         <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
@@ -979,16 +979,16 @@
         <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1081,13 +1081,13 @@
         <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1120,7 +1120,7 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.27</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I6" t="n">
         <v>2.64</v>
@@ -1222,7 +1222,7 @@
         <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1345,19 +1345,19 @@
         <v>7.4</v>
       </c>
       <c r="G7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
         <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J7" t="n">
         <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1480,10 +1480,10 @@
         <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
         <v>2.24</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
@@ -1522,25 +1522,25 @@
         <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V8" t="n">
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
         <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1549,22 +1549,22 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
         <v>60</v>
@@ -1573,16 +1573,16 @@
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
@@ -1627,7 +1627,7 @@
         <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -1714,7 +1714,7 @@
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
         <v>27</v>
@@ -1750,19 +1750,19 @@
         <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I10" t="n">
         <v>1.74</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1798,7 +1798,7 @@
         <v>2.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X10" t="n">
         <v>17.5</v>
@@ -1822,13 +1822,13 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
@@ -1843,7 +1843,7 @@
         <v>90</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1960,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="n">
         <v>990</v>
@@ -1972,13 +1972,13 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AK11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.18</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.22</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -691,52 +691,52 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
         <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -745,13 +745,13 @@
         <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>40</v>
@@ -766,13 +766,13 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
         <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
         <v>1.89</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -961,28 +961,28 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
         <v>2.12</v>
@@ -994,7 +994,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
@@ -1081,13 +1081,13 @@
         <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1117,13 +1117,13 @@
         <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
@@ -1219,7 +1219,7 @@
         <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H7" t="n">
         <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1390,7 +1390,7 @@
         <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
         <v>1.12</v>
@@ -1480,13 +1480,13 @@
         <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1519,13 +1519,13 @@
         <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U8" t="n">
         <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1534,13 +1534,13 @@
         <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1555,16 +1555,16 @@
         <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.08</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1636,52 +1636,52 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1690,34 +1690,34 @@
         <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1756,13 +1756,13 @@
         <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1777,7 +1777,7 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>1.19</v>
@@ -1804,7 +1804,7 @@
         <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>1.24</v>
@@ -1897,7 +1897,7 @@
         <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1915,7 +1915,7 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>1.82</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -1933,7 +1933,7 @@
         <v>4.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
         <v>48</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AK11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AL11" t="n">
         <v>140</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="n">
         <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.26</v>
@@ -2050,7 +2050,7 @@
         <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.52</v>
@@ -2059,13 +2059,13 @@
         <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
         <v>1.34</v>
       </c>
       <c r="H13" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2179,19 +2179,19 @@
         <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T13" t="n">
         <v>1.94</v>
@@ -2200,10 +2200,10 @@
         <v>1.85</v>
       </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -670,28 +670,28 @@
         <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.16</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -706,73 +706,73 @@
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN2" t="n">
         <v>48</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>55</v>
-      </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.37</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,16 +940,16 @@
         <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -958,7 +958,7 @@
         <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>4.6</v>
@@ -967,7 +967,7 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -979,10 +979,10 @@
         <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>2.12</v>
@@ -994,10 +994,10 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I5" t="n">
         <v>2.14</v>
@@ -1090,7 +1090,7 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,7 +1099,7 @@
         <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
         <v>1.86</v>
@@ -1255,7 +1255,7 @@
         <v>2.32</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
         <v>1.33</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G7" t="n">
         <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I7" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
         <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
         <v>2.06</v>
@@ -1507,16 +1507,16 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
         <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.51</v>
@@ -1531,19 +1531,19 @@
         <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1555,34 +1555,34 @@
         <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1645,7 +1645,7 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
@@ -1654,16 +1654,16 @@
         <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1705,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1756,7 +1756,7 @@
         <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1768,10 +1768,10 @@
         <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
@@ -1780,58 +1780,58 @@
         <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
         <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W10" t="n">
         <v>1.19</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
         <v>990</v>
       </c>
       <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>36</v>
@@ -1852,7 +1852,7 @@
         <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J11" t="n">
         <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,37 +1906,37 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="n">
         <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
@@ -1945,22 +1945,22 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG11" t="n">
         <v>990</v>
@@ -1972,13 +1972,13 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AK11" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AL11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="12">
@@ -2065,7 +2065,7 @@
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2185,16 +2185,16 @@
         <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
         <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
         <v>1.85</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W2" t="n">
         <v>1.34</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G3" t="n">
         <v>1.31</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J3" t="n">
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -829,25 +829,25 @@
         <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
         <v>1.06</v>
@@ -871,10 +871,10 @@
         <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -940,19 +940,19 @@
         <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -961,22 +961,22 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
@@ -985,34 +985,34 @@
         <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
         <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
         <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
         <v>3.3</v>
@@ -1117,67 +1117,67 @@
         <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
-      </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,19 +1231,19 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.38</v>
@@ -1252,13 +1252,13 @@
         <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,58 +1366,58 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="n">
         <v>990</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>85</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
         <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,16 +1507,16 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
         <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
         <v>1.51</v>
@@ -1525,10 +1525,10 @@
         <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1537,10 +1537,10 @@
         <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1567,7 +1567,7 @@
         <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
@@ -1579,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>9.6</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1624,7 +1624,7 @@
         <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1633,19 +1633,19 @@
         <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
@@ -1657,67 +1657,67 @@
         <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
         <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
         <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
         <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1747,106 +1747,106 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>95</v>
@@ -1888,16 +1888,16 @@
         <v>16.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,22 +1918,22 @@
         <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -1942,16 +1942,16 @@
         <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
         <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1960,16 +1960,16 @@
         <v>13.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
         <v>510</v>
@@ -1978,16 +1978,16 @@
         <v>210</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
         <v>5.5</v>
@@ -2026,13 +2026,13 @@
         <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.26</v>
@@ -2047,16 +2047,16 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
         <v>1.67</v>
@@ -2065,31 +2065,31 @@
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2098,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2110,16 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>9.800000000000001</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G13" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
       </c>
       <c r="Y13" t="n">
-        <v>990</v>
+        <v>260</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,22 +2230,22 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.7</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -733,46 +733,46 @@
         <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
         <v>13</v>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,13 +826,13 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
@@ -844,16 +844,16 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X3" t="n">
         <v>28</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,79 +937,79 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
         <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
         <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I5" t="n">
         <v>2.04</v>
@@ -1090,7 +1090,7 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,13 +1102,13 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
         <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.3</v>
@@ -1123,7 +1123,7 @@
         <v>1.96</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1132,7 +1132,7 @@
         <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA5" t="n">
         <v>25</v>
@@ -1150,7 +1150,7 @@
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1162,7 +1162,7 @@
         <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>150</v>
@@ -1210,28 +1210,28 @@
         <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1240,7 +1240,7 @@
         <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
         <v>1.58</v>
@@ -1249,10 +1249,10 @@
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
         <v>1.83</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>7.2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
         <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1387,10 +1387,10 @@
         <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
         <v>1.12</v>
@@ -1399,10 +1399,10 @@
         <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1411,7 +1411,7 @@
         <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>20</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1525,16 +1525,16 @@
         <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
         <v>18</v>
@@ -1543,7 +1543,7 @@
         <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1564,13 +1564,13 @@
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1753,64 +1753,64 @@
         <v>6.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>27</v>
@@ -1822,10 +1822,10 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
         <v>42</v>
@@ -1849,10 +1849,10 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J11" t="n">
         <v>7.4</v>
@@ -1900,16 +1900,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
         <v>3.55</v>
@@ -1918,10 +1918,10 @@
         <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
@@ -1930,28 +1930,28 @@
         <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1966,10 +1966,10 @@
         <v>60</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
         <v>510</v>
@@ -1984,7 +1984,7 @@
         <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="n">
         <v>3.1</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G12" t="n">
         <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="I12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
         <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
@@ -2086,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
@@ -2098,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2110,19 +2110,19 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2155,25 +2155,25 @@
         <v>1.26</v>
       </c>
       <c r="G13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
         <v>14.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>7.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
@@ -2185,16 +2185,16 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -685,7 +685,7 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -700,7 +700,7 @@
         <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
@@ -733,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -745,13 +745,13 @@
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -766,7 +766,7 @@
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>44</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,16 +850,16 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG3" t="n">
         <v>11</v>
       </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -961,55 +961,55 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
@@ -1081,16 +1081,16 @@
         <v>1.91</v>
       </c>
       <c r="I5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1120,10 +1120,10 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1132,7 +1132,7 @@
         <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>25</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="G6" t="n">
         <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1279,7 +1279,7 @@
         <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
         <v>60</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,22 +1345,22 @@
         <v>7.2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I7" t="n">
         <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1375,19 +1375,19 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.91</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>2.96</v>
@@ -1399,10 +1399,10 @@
         <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1507,7 +1507,7 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
         <v>1.5</v>
@@ -1516,19 +1516,19 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U8" t="n">
         <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1537,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
         <v>27</v>
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
         <v>30</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -1633,31 +1633,31 @@
         <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>1.33</v>
@@ -1666,7 +1666,7 @@
         <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>22</v>
@@ -1684,7 +1684,7 @@
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>95</v>
@@ -1696,13 +1696,13 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
         <v>19.5</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1777,7 +1777,7 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
         <v>1.82</v>
@@ -1786,22 +1786,22 @@
         <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
         <v>9.4</v>
@@ -1810,37 +1810,37 @@
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI10" t="n">
         <v>38</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>80</v>
       </c>
       <c r="AJ10" t="n">
         <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
         <v>190</v>
@@ -1852,7 +1852,7 @@
         <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.800000000000001</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>17.5</v>
@@ -1891,13 +1891,13 @@
         <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J11" t="n">
         <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.17</v>
@@ -1906,40 +1906,40 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
         <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
         <v>11</v>
@@ -1948,13 +1948,13 @@
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AC11" t="n">
         <v>19.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>13.5</v>
@@ -1963,7 +1963,7 @@
         <v>170</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
         <v>32</v>
@@ -1978,16 +1978,16 @@
         <v>210</v>
       </c>
       <c r="AL11" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
         <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
         <v>1.64</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2044,37 +2044,37 @@
         <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
         <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
@@ -2086,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
@@ -2098,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2110,16 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G13" t="n">
         <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.18</v>
@@ -2176,28 +2176,28 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2233,10 +2233,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2248,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.65</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
         <v>44</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
         <v>1.35</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
         <v>6.6</v>
@@ -823,43 +823,43 @@
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
         <v>3.85</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>14</v>
@@ -880,22 +880,22 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,82 +937,82 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,16 +1021,16 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1075,58 +1075,58 @@
         <v>3.95</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
         <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
         <v>1.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>9.6</v>
@@ -1135,22 +1135,22 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1165,19 +1165,19 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN5" t="n">
         <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I6" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1225,74 +1225,74 @@
         <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
         <v>990</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>30</v>
       </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.45</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
         <v>32</v>
@@ -1411,22 +1411,22 @@
         <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AD7" t="n">
         <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AG7" t="n">
         <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1477,91 +1477,91 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
         <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
         <v>1.52</v>
       </c>
       <c r="U8" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
         <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.58</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.59</v>
       </c>
       <c r="S9" t="n">
         <v>2.62</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
         <v>5.9</v>
@@ -1756,52 +1756,52 @@
         <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.4</v>
@@ -1810,16 +1810,16 @@
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17.5</v>
@@ -1840,19 +1840,19 @@
         <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
         <v>190</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1885,22 +1885,22 @@
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
         <v>1.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1909,85 +1909,85 @@
         <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.84</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.81</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
         <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="AK11" t="n">
         <v>210</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AM11" t="n">
         <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2047,82 +2047,82 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2155,52 +2155,52 @@
         <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
         <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="W13" t="n">
         <v>4.1</v>
@@ -2209,7 +2209,7 @@
         <v>990</v>
       </c>
       <c r="Y13" t="n">
-        <v>260</v>
+        <v>990</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>990</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>990</v>
@@ -2242,19 +2242,19 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
         <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN2" t="n">
         <v>70</v>
       </c>
-      <c r="AK2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>44</v>
-      </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL3" t="n">
         <v>46</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -961,34 +961,34 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>44</v>
@@ -997,16 +997,16 @@
         <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>18</v>
@@ -1021,25 +1021,25 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1099,10 +1099,10 @@
         <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
         <v>1.96</v>
@@ -1111,73 +1111,73 @@
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
         <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI5" t="n">
         <v>38</v>
       </c>
-      <c r="AB5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AJ5" t="n">
         <v>80</v>
       </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
         <v>160</v>
       </c>
       <c r="AM5" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.59</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,22 +1273,22 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>30</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.35</v>
@@ -1366,88 +1366,88 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
         <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>32</v>
       </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AJ7" t="n">
         <v>190</v>
       </c>
-      <c r="AG7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
         <v>28</v>
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1549,22 +1549,22 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ8" t="n">
         <v>60</v>
@@ -1582,13 +1582,13 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG9" t="n">
         <v>19</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>40</v>
-      </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
         <v>5.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>5.8</v>
       </c>
       <c r="G11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
         <v>16</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH11" t="n">
         <v>60</v>
       </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>990</v>
-      </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
-        <v>470</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.05</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="I12" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="X12" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="n">
         <v>990</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="13">
@@ -2138,125 +2138,260 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.31</v>
+        <v>5.8</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.54</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="T13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.04</v>
       </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="W13" t="n">
-        <v>4.1</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
       </c>
       <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
         <v>990</v>
       </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
         <v>990</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X14" t="n">
         <v>990</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
+      <c r="Y14" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
         <v>29</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>1.21</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.18</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>5.3</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AC2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="W3" t="n">
-        <v>5.4</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>34</v>
       </c>
-      <c r="Y3" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.79</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK4" t="n">
         <v>48</v>
       </c>
-      <c r="AB4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>100</v>
-      </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.1</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.81</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1193,114 +1193,114 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="G6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>30</v>
-      </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,16 +1309,16 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM7" t="n">
         <v>55</v>
       </c>
-      <c r="AG7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AN7" t="n">
         <v>23</v>
       </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>100</v>
-      </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
         <v>28</v>
       </c>
-      <c r="Y8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>460</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.65</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.28</v>
-      </c>
       <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.08</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>4.3</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.4</v>
-      </c>
       <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.19</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X10" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF10" t="n">
         <v>980</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AG10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>900</v>
       </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.39</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH11" t="n">
         <v>30</v>
       </c>
-      <c r="AF11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>60</v>
-      </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>510</v>
       </c>
       <c r="AK11" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.6</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="I12" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="J12" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.21</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>4.7</v>
+        <v>2.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK12" t="n">
         <v>60</v>
       </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>640</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>180</v>
-      </c>
       <c r="AL12" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
@@ -2138,79 +2138,79 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>5.8</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>1.7</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W13" t="n">
         <v>4.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X13" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y13" t="n">
         <v>990</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z13" t="n">
         <v>1000</v>
       </c>
@@ -2218,180 +2218,45 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>990</v>
       </c>
-      <c r="AC13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Hapoel Beer Sheva</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Hapoel Jerusalem</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="J2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" t="n">
         <v>1.51</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S2" t="n">
         <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,34 +736,34 @@
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="I3" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
         <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF3" t="n">
         <v>44</v>
       </c>
-      <c r="Y3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18</v>
       </c>
-      <c r="AE3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
         <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
         <v>65</v>
       </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I6" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1234,46 +1234,46 @@
         <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1285,34 +1285,34 @@
         <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1366,49 +1366,49 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
         <v>2.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="n">
         <v>25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1417,13 +1417,13 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>16.5</v>
@@ -1432,22 +1432,22 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="8">
@@ -1477,94 +1477,94 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
@@ -1573,16 +1573,16 @@
         <v>190</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM8" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1654,28 +1654,28 @@
         <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
         <v>14</v>
@@ -1684,40 +1684,40 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
         <v>16</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.38</v>
@@ -1771,25 +1771,25 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
         <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
@@ -1801,40 +1801,40 @@
         <v>1.19</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>900</v>
@@ -1843,16 +1843,16 @@
         <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.26</v>
       </c>
       <c r="J11" t="n">
         <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.12</v>
@@ -1915,76 +1915,76 @@
         <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
       </c>
       <c r="Z11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
       <c r="AB11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>470</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="n">
         <v>150</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>510</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>140</v>
       </c>
       <c r="AO11" t="n">
         <v>3.55</v>
@@ -2026,46 +2026,46 @@
         <v>1.69</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
         <v>1.21</v>
@@ -2083,13 +2083,13 @@
         <v>17.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>16</v>
@@ -2107,7 +2107,7 @@
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
         <v>60</v>
@@ -2122,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2158,16 +2158,16 @@
         <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2185,31 +2185,31 @@
         <v>2.48</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.59</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
         <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V13" t="n">
         <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>990</v>
+        <v>200</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2248,13 +2248,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>5.1</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>110</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.18</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.97</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>1.13</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>7.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>4.3</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
         <v>2.06</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>4.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>260</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
         <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH5" t="n">
         <v>12</v>
       </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.78</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE6" t="n">
         <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
@@ -1360,94 +1360,94 @@
         <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
         <v>75</v>
       </c>
-      <c r="AK7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>55</v>
-      </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
@@ -1504,10 +1504,10 @@
         <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1516,19 +1516,19 @@
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
         <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>7.6</v>
@@ -1540,13 +1540,13 @@
         <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
         <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
         <v>14</v>
@@ -1555,22 +1555,22 @@
         <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
         <v>290</v>
@@ -1582,7 +1582,7 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
@@ -1636,61 +1636,61 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
         <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1714,10 +1714,10 @@
         <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1774,31 +1774,31 @@
         <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1807,52 +1807,52 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE10" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>30</v>
-      </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I11" t="n">
         <v>1.25</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>4.9</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
         <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AL11" t="n">
-        <v>470</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>5.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="I12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
         <v>4.7</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
@@ -2056,25 +2056,25 @@
         <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>12</v>
@@ -2095,16 +2095,16 @@
         <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
         <v>130</v>
@@ -2119,10 +2119,10 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2176,37 +2176,37 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.79</v>
       </c>
       <c r="V13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="n">
         <v>150</v>
@@ -2224,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>8.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>80</v>
@@ -2248,13 +2248,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:15:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>500</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -748,37 +748,37 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:15:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="I3" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>460</v>
+      </c>
+      <c r="AH3" t="n">
         <v>990</v>
       </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,105 +923,105 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.97</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>1.13</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.8</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="S4" t="n">
-        <v>46</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.06</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11</v>
       </c>
-      <c r="AE5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,84 +1193,84 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1279,37 +1279,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>8.199999999999999</v>
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>15.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>17.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.23</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V7" t="n">
         <v>5.3</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.26</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>1.63</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>1.68</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>16</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AF8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK8" t="n">
         <v>65</v>
       </c>
-      <c r="AB8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>90</v>
-      </c>
       <c r="AL8" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -1598,666 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>1.29</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>4.4</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>40</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>27</v>
-      </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Al-Shabab (KSA)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Al-Quadisiya (KSA)</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Al-Kholood Club</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Al-Hilal</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14:45:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FC Ashdod</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Maccabi Haifa</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X12" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Hapoel Beer Sheva</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Hapoel Jerusalem</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>1.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,88 +691,88 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.74</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.98</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.85</v>
+        <v>11.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="n">
-        <v>210</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="I3" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,49 +871,49 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,93 +923,93 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>1.21</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>1.96</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>5.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.56</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>170</v>
       </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,531 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>6.2</v>
       </c>
-      <c r="G6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Al-Kholood Club</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Al-Hilal</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>470</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FC Ashdod</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Maccabi Haifa</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hapoel Beer Sheva</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hapoel Jerusalem</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
